--- a/xlsx/NHL_intext.xlsx
+++ b/xlsx/NHL_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>NHL</t>
   </si>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E4%BC%81%E9%B5%9D</t>
   </si>
   <si>
-    <t>匹茲堡企鵝</t>
+    <t>匹兹堡企鹅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E9%81%8B%E5%8B%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>職業運動聯盟</t>
+    <t>职业运动联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9B%9B%E5%A4%A7%E8%81%B7%E6%A5%AD%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>北美四大職業運動</t>
+    <t>北美四大职业运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%9D%A6%E5%88%A9%E6%9D%AF</t>
@@ -113,25 +113,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特利爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
+    <t>东欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E5%B9%95</t>
   </si>
   <si>
-    <t>鐵幕</t>
+    <t>铁幕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81</t>
@@ -155,25 +152,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF%E5%8F%83%E8%AD%B0%E5%93%A1%E9%9A%8A</t>
   </si>
   <si>
-    <t>渥太華參議員隊</t>
+    <t>渥太华参议员队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E5%9C%B0%E5%8F%AF</t>
   </si>
   <si>
-    <t>滿地可</t>
+    <t>满地可</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E6%A5%93%E8%91%89%E9%9A%8A</t>
   </si>
   <si>
-    <t>多倫多楓葉隊</t>
+    <t>多伦多枫叶队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1918%E5%B9%B4%E6%B5%81%E6%84%9F%E5%A4%A7%E6%B5%81%E8%A1%8C</t>
@@ -185,163 +182,163 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E6%A3%95%E7%86%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>波士頓棕熊隊</t>
+    <t>波士顿棕熊队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%81%8A%E9%A8%8E%E5%85%B5%E9%9A%8A</t>
   </si>
   <si>
-    <t>紐約遊騎兵隊</t>
+    <t>纽约游骑兵队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E9%BB%91%E9%B7%B9%E9%9A%8A</t>
   </si>
   <si>
-    <t>芝加哥黑鷹隊</t>
+    <t>芝加哥黑鹰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E7%B4%85%E7%BF%BC%E9%9A%8A</t>
   </si>
   <si>
-    <t>底特律紅翼隊</t>
+    <t>底特律红翼队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E6%81%90%E6%85%8C</t>
   </si>
   <si>
-    <t>經濟大恐慌</t>
+    <t>经济大恐慌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E9%A3%9B%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>費城飛人隊</t>
+    <t>费城飞人队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>聖路易斯藍調</t>
+    <t>圣路易斯蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%8C%97%E6%98%9F%E9%9A%8A</t>
   </si>
   <si>
-    <t>明尼蘇達北星隊</t>
+    <t>明尼苏达北星队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%9C%8B%E7%8E%8B%E9%9A%8A</t>
   </si>
   <si>
-    <t>洛杉磯國王隊</t>
+    <t>洛杉矶国王队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E4%BC%81%E9%B5%9D%E9%9A%8A</t>
   </si>
   <si>
-    <t>匹茲堡企鵝隊</t>
+    <t>匹兹堡企鹅队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF%E5%8A%A0%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>溫哥華加人隊</t>
+    <t>温哥华加人队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8A%A0%E9%82%8A%E5%A2%83</t>
   </si>
   <si>
-    <t>美加邊境</t>
+    <t>美加边境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%89%9B%E5%9F%8E%E8%BB%8D%E5%88%80%E9%9A%8A</t>
   </si>
   <si>
-    <t>水牛城軍刀隊</t>
+    <t>水牛城军刀队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B3%B6%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>紐約島人隊</t>
+    <t>纽约岛人队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E7%81%AB%E7%84%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>亞特蘭大火焰隊</t>
+    <t>亚特兰大火焰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%8B%98%E5%AF%9F%E5%AE%B6%E9%9A%8A</t>
   </si>
   <si>
-    <t>堪薩斯勘察家隊</t>
+    <t>堪萨斯勘察家队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%A6%96%E9%83%BD%E9%9A%8A</t>
   </si>
   <si>
-    <t>華盛頓首都隊</t>
+    <t>华盛顿首都队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B0%BC%E4%BC%AF%E5%99%B4%E5%B0%84%E6%A9%9F%E9%9A%8A</t>
   </si>
   <si>
-    <t>溫尼伯噴射機隊</t>
+    <t>温尼伯喷射机队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF%E9%AF%8A%E9%AD%9A%E9%9A%8A</t>
   </si>
   <si>
-    <t>聖荷西鯊魚隊</t>
+    <t>圣荷西鲨鱼队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E9%96%83%E9%9B%BB%E9%9A%8A</t>
   </si>
   <si>
-    <t>坦帕灣閃電隊</t>
+    <t>坦帕湾闪电队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E6%B5%B7%E5%A7%86%E5%B0%8F%E9%B4%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>安納海姆小鴨隊</t>
+    <t>安纳海姆小鸭队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%BE%8E%E6%B4%B2%E8%B1%B9%E9%9A%8A</t>
   </si>
   <si>
-    <t>佛羅里達美洲豹隊</t>
+    <t>佛罗里达美洲豹队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E7%B6%AD%E7%88%BE%E6%8E%A0%E5%A5%AA%E8%80%85%E9%9A%8A</t>
   </si>
   <si>
-    <t>納什維爾掠奪者隊</t>
+    <t>纳什维尔掠夺者队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E9%B6%87%E9%B3%A5%E9%9A%8A</t>
   </si>
   <si>
-    <t>亞特蘭大鶇鳥隊</t>
+    <t>亚特兰大鸫鸟队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E8%8D%92%E9%87%8E%E9%9A%8A</t>
   </si>
   <si>
-    <t>明尼蘇達荒野隊</t>
+    <t>明尼苏达荒野队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E8%97%8D%E8%A1%A3%E9%9A%8A</t>
   </si>
   <si>
-    <t>哥倫布藍衣隊</t>
+    <t>哥伦布蓝衣队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Weaver</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%8A%A0%E5%88%A9%E7%81%AB%E7%84%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>卡加利火焰隊</t>
+    <t>卡加利火焰队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Daymond_Langkow</t>
@@ -383,39 +380,33 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橡膠</t>
+    <t>橡胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA</t>
   </si>
   <si>
-    <t>蒙特利爾加拿大人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E5%88%A9%E7%9B%83</t>
   </si>
   <si>
-    <t>史丹利盃</t>
+    <t>史丹利杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%B4%8B%E5%9F%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>紐約洋基隊</t>
+    <t>纽约洋基队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>蒙特利爾加拿大人隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/ESPN</t>
   </si>
   <si>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E5%88%86%E5%8D%80</t>
   </si>
   <si>
-    <t>東南分區</t>
+    <t>东南分区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B0%BC%E6%89%98%E5%B7%B4%E7%9C%81</t>
@@ -437,31 +428,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B0%BC%E4%BC%AF</t>
   </si>
   <si>
-    <t>溫尼伯</t>
+    <t>温尼伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>美國時區</t>
+    <t>美国时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%83%A8%E8%81%AF%E7%9B%9F_(NHL)</t>
   </si>
   <si>
-    <t>東部聯盟 (NHL)</t>
+    <t>东部联盟 (NHL)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E5%88%86%E5%8D%80</t>
   </si>
   <si>
-    <t>大都會分區</t>
+    <t>大都会分区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>卡羅來納颶風</t>
+    <t>卡罗来纳飓风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PNC_Arena</t>
@@ -473,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%87%8C_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅里 (北卡羅來納州)</t>
+    <t>罗里 (北卡罗来纳州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E8%97%8D%E8%A1%A3</t>
   </si>
   <si>
-    <t>哥倫布藍衣</t>
+    <t>哥伦布蓝衣</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nationwide_Arena</t>
@@ -503,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E9%AD%94%E9%AC%BC</t>
   </si>
   <si>
-    <t>紐澤西魔鬼</t>
+    <t>纽泽西魔鬼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Prudential_Center</t>
@@ -521,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%93%A6%E5%85%8B_(%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E)</t>
@@ -533,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%85%8B%E8%90%8A%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>巴克萊中心</t>
+    <t>巴克莱中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97%E5%8C%BA</t>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%81%8A%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>紐約遊騎兵</t>
+    <t>纽约游骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E8%BF%AA%E9%80%8A%E8%8A%B1%E5%9B%AD%E5%B9%BF%E5%9C%BA</t>
@@ -563,31 +554,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E9%A3%9B%E4%BA%BA</t>
   </si>
   <si>
-    <t>費城飛人</t>
+    <t>费城飞人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9C%8B%E9%8A%80%E8%A1%8C%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>富國銀行中心</t>
+    <t>富国银行中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PPG_Paints_Arena</t>
@@ -599,37 +590,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1</t>
   </si>
   <si>
-    <t>匹茲堡</t>
+    <t>匹兹堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%A6%96%E9%83%BD</t>
   </si>
   <si>
-    <t>華盛頓首都</t>
+    <t>华盛顿首都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%B3%87%E6%9C%AC%E7%AB%B6%E6%8A%80%E9%A4%A8</t>
   </si>
   <si>
-    <t>第一資本競技館</t>
+    <t>第一资本竞技馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%88%86%E5%8D%80_(NHL)</t>
   </si>
   <si>
-    <t>大西洋分區 (NHL)</t>
+    <t>大西洋分区 (NHL)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E6%A3%95%E7%86%8A</t>
   </si>
   <si>
-    <t>波士頓棕熊</t>
+    <t>波士顿棕熊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TD%E8%8A%B1%E5%9B%AD</t>
@@ -641,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%89%9B%E5%9F%8E%E8%BB%8D%E5%88%80</t>
   </si>
   <si>
-    <t>水牛城軍刀</t>
+    <t>水牛城军刀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/KeyBank_Center</t>
@@ -671,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E7%B4%85%E7%BF%BC</t>
   </si>
   <si>
-    <t>底特律紅翼</t>
+    <t>底特律红翼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%87%B1%E8%96%A9%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>小凱薩體育館</t>
+    <t>小凯萨体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%BE%8E%E6%B4%B2%E8%B1%B9</t>
   </si>
   <si>
-    <t>佛羅里達美洲豹</t>
+    <t>佛罗里达美洲豹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/BB%26T_Center_(Sunrise,_Florida)</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E8%B5%96%E6%96%AF_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -719,19 +710,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>貝爾中心</t>
+    <t>贝尔中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81</t>
   </si>
   <si>
-    <t>蒙特婁</t>
+    <t>蒙特娄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>渥太華參議員</t>
+    <t>渥太华参议员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Canadian_Tire_Centre</t>
@@ -743,13 +734,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF</t>
   </si>
   <si>
-    <t>渥太華</t>
+    <t>渥太华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E9%96%83%E9%9B%BB</t>
   </si>
   <si>
-    <t>坦帕灣閃電</t>
+    <t>坦帕湾闪电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Amalie_Arena</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E6%A5%93%E8%91%89</t>
   </si>
   <si>
-    <t>多倫多楓葉</t>
+    <t>多伦多枫叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%88%AA%E7%A9%BA%E4%B8%AD%E5%BF%83</t>
@@ -779,31 +770,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E8%81%AF%E7%9B%9F_(NHL)</t>
   </si>
   <si>
-    <t>西部聯盟 (NHL)</t>
+    <t>西部联盟 (NHL)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%88%86%E5%8D%80</t>
   </si>
   <si>
-    <t>中央分區</t>
+    <t>中央分区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E9%BB%91%E9%B7%B9</t>
   </si>
   <si>
-    <t>芝加哥黑鷹</t>
+    <t>芝加哥黑鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>聯合中心</t>
+    <t>联合中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%9B%AA%E5%B4%A9</t>
   </si>
   <si>
-    <t>科羅拉多雪崩</t>
+    <t>科罗拉多雪崩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E4%BA%8B%E4%B8%AD%E5%BF%83</t>
@@ -827,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
@@ -839,31 +830,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E6%98%9F</t>
   </si>
   <si>
-    <t>達拉斯星</t>
+    <t>达拉斯星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>美國航空中心</t>
+    <t>美国航空中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
+    <t>达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E8%8D%92%E9%87%8E</t>
   </si>
   <si>
-    <t>明尼蘇達荒野</t>
+    <t>明尼苏达荒野</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Xcel_Energy_Center</t>
@@ -875,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85_(%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖保羅 (明尼蘇達州)</t>
+    <t>圣保罗 (明尼苏达州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Scottrade_Center</t>
@@ -893,19 +884,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93</t>
   </si>
   <si>
-    <t>聖路易</t>
+    <t>圣路易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E7%B6%AD%E7%88%BE%E6%8E%A0%E5%A5%AA%E8%80%85</t>
   </si>
   <si>
-    <t>納什維爾掠奪者</t>
+    <t>纳什维尔掠夺者</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bridgestone_Arena</t>
@@ -917,13 +908,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>納什維爾</t>
+    <t>纳什维尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bell_MTS_Place</t>
@@ -935,13 +926,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%88%86%E5%8D%80_(NHL)</t>
   </si>
   <si>
-    <t>太平洋分區 (NHL)</t>
+    <t>太平洋分区 (NHL)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0%E9%B4%A8</t>
   </si>
   <si>
-    <t>安那翰鴨</t>
+    <t>安那翰鸭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E4%B8%AD%E5%BF%83</t>
@@ -953,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0</t>
@@ -971,13 +962,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E6%A5%AD%E9%8A%80%E8%A1%8C%E9%A6%AC%E9%9E%8D%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>豐業銀行馬鞍體育館</t>
+    <t>丰业银行马鞍体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>亞伯達省</t>
+    <t>亚伯达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%8A%A0%E5%88%A9</t>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B0%91%E9%A0%93%E6%B2%B9%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛民頓油人</t>
+    <t>爱民顿油人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rogers_Place</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E8%92%99%E9%A0%93</t>
   </si>
   <si>
-    <t>艾德蒙頓</t>
+    <t>艾德蒙顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>洛杉磯國王</t>
+    <t>洛杉矶国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%9D%A6%E6%B3%A2%E4%B8%AD%E5%BF%83</t>
@@ -1019,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%9C%9F%E7%8B%BC</t>
   </si>
   <si>
-    <t>亞利桑那土狼</t>
+    <t>亚利桑那土狼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gila_River_Arena</t>
@@ -1037,61 +1028,61 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%B2%B1%E7%88%BE</t>
   </si>
   <si>
-    <t>格蘭岱爾</t>
+    <t>格兰岱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF%E9%AF%8A%E9%AD%9A</t>
   </si>
   <si>
-    <t>聖荷西鯊魚</t>
+    <t>圣荷西鲨鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BFSAP%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>聖荷西SAP中心</t>
+    <t>圣荷西SAP中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF</t>
   </si>
   <si>
-    <t>聖荷西</t>
+    <t>圣荷西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF%E5%8A%A0%E4%BA%BA</t>
   </si>
   <si>
-    <t>溫哥華加人</t>
+    <t>温哥华加人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B8%A3%E5%A3%AB%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>羅渣士體育館</t>
+    <t>罗渣士体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E8%A9%A9%E7%9C%81</t>
   </si>
   <si>
-    <t>卑詩省</t>
+    <t>卑诗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF</t>
   </si>
   <si>
-    <t>溫哥華</t>
+    <t>温哥华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%8A%A0%E6%96%AF%E9%BB%83%E9%87%91%E9%A8%8E%E5%A3%AB</t>
   </si>
   <si>
-    <t>維加斯黃金騎士</t>
+    <t>维加斯黄金骑士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/T-Mobile_Arena</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%A0%82%E5%B8%82</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E6%88%B0%E5%9B%9B%E5%8B%9D%E5%88%B6</t>
   </si>
   <si>
-    <t>七戰四勝制</t>
+    <t>七战四胜制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art_Ross_Trophy</t>
@@ -1139,13 +1130,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%9B%B2%E6%96%AF%C2%B7%E7%94%98%E4%BF%9D%E6%9D%AF</t>
   </si>
   <si>
-    <t>卡雲斯·甘保杯</t>
+    <t>卡云斯·甘保杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF%E7%8E%8B%E5%AD%90%E7%8D%8E</t>
   </si>
   <si>
-    <t>威爾斯王子獎</t>
+    <t>威尔斯王子奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%A5%A5%C2%B7%E6%8B%89%E8%B0%AC</t>
@@ -1181,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E5%85%8B%C2%B7%E6%99%AE%E8%98%AD%E7%89%B9</t>
   </si>
   <si>
-    <t>積克·普蘭特</t>
+    <t>积克·普兰特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E6%99%AE%E5%85%B0%E7%89%B9</t>
@@ -1205,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%C2%B7%E6%A0%BC%E9%9B%B7%E8%8C%B2%E5%9F%BA</t>
   </si>
   <si>
-    <t>韋恩·格雷茲基</t>
+    <t>韦恩·格雷兹基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%81%A9%C2%B7%E6%A0%BC%E9%9B%B7%E8%8C%A8%E5%9F%BA</t>
@@ -1247,13 +1238,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%B8%82%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>多倫多市中心</t>
+    <t>多伦多市中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>加拿大廣播公司</t>
+    <t>加拿大广播公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Sports_Network</t>
@@ -1265,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B8%A3%E5%A3%AB%E9%AB%94%E8%82%B2%E7%B6%B2</t>
   </si>
   <si>
-    <t>羅渣士體育網</t>
+    <t>罗渣士体育网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBCSN</t>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家廣播公司</t>
+    <t>国家广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC</t>
@@ -1289,43 +1280,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%8A%A0%E9%87%8C%E7%81%AB%E7%84%B0</t>
   </si>
   <si>
-    <t>卡爾加里火焰</t>
+    <t>卡尔加里火焰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E9%AD%94%E9%AC%BC</t>
   </si>
   <si>
-    <t>新澤西魔鬼</t>
+    <t>新泽西魔鬼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B3%B6%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約島人</t>
+    <t>纽约岛人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E8%81%B7%E6%A5%AD%E9%AB%94%E8%82%B2%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>北美職業體育聯賽</t>
+    <t>北美职业体育联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%8A%A0%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>加拿大加式足球聯盟</t>
+    <t>加拿大加式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業棒球大聯盟</t>
+    <t>美国职业棒球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業足球大聯盟</t>
+    <t>美国职业足球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -1337,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家美式橄欖球聯盟</t>
+    <t>国家美式橄榄球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
@@ -2152,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -2178,10 +2169,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2207,10 +2198,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2236,10 +2227,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2265,10 +2256,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -2294,10 +2285,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2323,10 +2314,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2352,10 +2343,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2381,10 +2372,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -2410,10 +2401,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>11</v>
@@ -2439,10 +2430,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2468,10 +2459,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2497,10 +2488,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2526,10 +2517,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2555,10 +2546,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2584,10 +2575,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -2613,10 +2604,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2642,10 +2633,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2671,10 +2662,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2700,10 +2691,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2729,10 +2720,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2758,10 +2749,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2787,10 +2778,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2816,10 +2807,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2845,10 +2836,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2874,10 +2865,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2903,10 +2894,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2932,10 +2923,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2961,10 +2952,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2990,10 +2981,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3019,10 +3010,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3048,10 +3039,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3077,10 +3068,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3106,10 +3097,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3135,10 +3126,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3164,10 +3155,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3193,10 +3184,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3222,10 +3213,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3251,10 +3242,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3280,10 +3271,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3309,10 +3300,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3338,10 +3329,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3367,10 +3358,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3396,10 +3387,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3425,10 +3416,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3454,10 +3445,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3483,10 +3474,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -3512,10 +3503,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3541,10 +3532,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3570,10 +3561,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3599,10 +3590,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3628,10 +3619,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3657,10 +3648,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3686,10 +3677,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3715,10 +3706,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -3744,10 +3735,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3773,10 +3764,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3802,10 +3793,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3831,10 +3822,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3860,10 +3851,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3889,10 +3880,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3918,10 +3909,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -3947,10 +3938,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3976,10 +3967,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4005,10 +3996,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4034,10 +4025,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -4063,10 +4054,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4092,10 +4083,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4121,10 +4112,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4150,10 +4141,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4179,10 +4170,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
         <v>83</v>
-      </c>
-      <c r="F86" t="s">
-        <v>84</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4208,10 +4199,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4237,10 +4228,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4266,10 +4257,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4295,10 +4286,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4324,10 +4315,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4353,10 +4344,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>14</v>
@@ -4382,10 +4373,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4411,10 +4402,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4440,10 +4431,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4469,10 +4460,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4498,10 +4489,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4527,10 +4518,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>6</v>
@@ -4556,10 +4547,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4585,10 +4576,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4614,10 +4605,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4643,10 +4634,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4672,10 +4663,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -4701,10 +4692,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4730,10 +4721,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4759,10 +4750,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -4788,10 +4779,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4817,10 +4808,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4846,10 +4837,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -4875,10 +4866,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -4904,10 +4895,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4933,10 +4924,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4962,10 +4953,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>7</v>
@@ -4991,10 +4982,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5020,10 +5011,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5049,10 +5040,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5078,10 +5069,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5107,10 +5098,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5136,10 +5127,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
@@ -5165,10 +5156,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -5194,10 +5185,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5223,10 +5214,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -5252,10 +5243,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5281,10 +5272,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5310,10 +5301,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -5339,10 +5330,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>5</v>
@@ -5368,10 +5359,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5397,10 +5388,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5426,10 +5417,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5455,10 +5446,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>4</v>
@@ -5484,10 +5475,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5513,10 +5504,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5542,10 +5533,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -5571,10 +5562,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5600,10 +5591,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5629,10 +5620,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5658,10 +5649,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5687,10 +5678,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5716,10 +5707,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5745,10 +5736,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5774,10 +5765,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5803,10 +5794,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -5832,10 +5823,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5861,10 +5852,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5890,10 +5881,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5919,10 +5910,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5948,10 +5939,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5977,10 +5968,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -6006,10 +5997,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6035,10 +6026,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6064,10 +6055,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6093,10 +6084,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -6122,10 +6113,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>90</v>
+      </c>
+      <c r="F153" t="s">
         <v>91</v>
-      </c>
-      <c r="F153" t="s">
-        <v>92</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -6151,10 +6142,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6180,10 +6171,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6209,10 +6200,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6238,10 +6229,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6267,10 +6258,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6296,10 +6287,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6325,10 +6316,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6354,10 +6345,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6383,10 +6374,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6412,10 +6403,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -6441,10 +6432,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6470,10 +6461,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6499,10 +6490,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6528,10 +6519,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -6557,10 +6548,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6586,10 +6577,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>5</v>
@@ -6615,10 +6606,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6644,10 +6635,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6673,10 +6664,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6702,10 +6693,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6731,10 +6722,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -6760,10 +6751,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6789,10 +6780,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -6818,10 +6809,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6847,10 +6838,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6876,10 +6867,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6905,10 +6896,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>5</v>
@@ -6934,10 +6925,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6963,10 +6954,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6992,10 +6983,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7021,10 +7012,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7050,10 +7041,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7079,10 +7070,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7108,10 +7099,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F187" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7137,10 +7128,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7166,10 +7157,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7195,10 +7186,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7224,10 +7215,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7253,10 +7244,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7282,10 +7273,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7311,10 +7302,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7340,10 +7331,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7369,10 +7360,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7398,10 +7389,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7427,10 +7418,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7456,10 +7447,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7485,10 +7476,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7514,10 +7505,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7543,10 +7534,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7572,10 +7563,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7601,10 +7592,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7630,10 +7621,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7659,10 +7650,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7688,10 +7679,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7717,10 +7708,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -7746,10 +7737,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F209" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7775,10 +7766,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7804,10 +7795,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7833,10 +7824,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7862,10 +7853,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7891,10 +7882,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -7920,10 +7911,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7949,10 +7940,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7978,10 +7969,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F217" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G217" t="n">
         <v>6</v>
@@ -8007,10 +7998,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F218" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8036,10 +8027,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F219" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8065,10 +8056,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F220" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8094,10 +8085,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F221" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8123,10 +8114,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F222" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8152,10 +8143,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8181,10 +8172,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8210,10 +8201,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F225" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8239,10 +8230,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F226" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8268,10 +8259,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8297,10 +8288,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F228" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8326,10 +8317,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>68</v>
+      </c>
+      <c r="F229" t="s">
         <v>69</v>
-      </c>
-      <c r="F229" t="s">
-        <v>70</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8355,10 +8346,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F230" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8384,10 +8375,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8413,10 +8404,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8442,10 +8433,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8471,10 +8462,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8500,10 +8491,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8529,10 +8520,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -8558,10 +8549,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F237" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
